--- a/wdc_libs/parsers/wdc-timeline/timeline5.32.xlsx
+++ b/wdc_libs/parsers/wdc-timeline/timeline5.32.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
   <si>
     <t>key</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>dp29</t>
+  </si>
+  <si>
+    <t>dataset.id</t>
+  </si>
+  <si>
+    <t>e7d3b3a0-aff8-11e6-bf26-9bee11936d1b</t>
   </si>
 </sst>
 </file>
@@ -799,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +838,7 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -844,73 +850,81 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>107</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1468,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E786"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
